--- a/Testing/Testing Log.xlsx
+++ b/Testing/Testing Log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zac Seeto\Djangodev\IFB299-Team96\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F02CD-365E-48DE-8D72-27B2ECA4F69D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>Project Name</t>
   </si>
@@ -348,12 +349,129 @@
 “Confirm” button will add the review; pop-up “Success” and return to “Main Page”
 </t>
   </si>
+  <si>
+    <t>96_Cars_TC_07</t>
+  </si>
+  <si>
+    <t>Car Recommendation</t>
+  </si>
+  <si>
+    <t>1. Click "Search Car" on top</t>
+  </si>
+  <si>
+    <t>2. Click "Recommend me a car"</t>
+  </si>
+  <si>
+    <t>2. User has access to the "Search Car" function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The link http://127.0.0.1:8000/
+searchpage/ </t>
+  </si>
+  <si>
+    <t>Selected options from the drop
+down boxes</t>
+  </si>
+  <si>
+    <t>The user should be able to select from a range of cars that have been recommended based on their chosen preferences</t>
+  </si>
+  <si>
+    <t>User can filter the cars to cater
+more to their desires</t>
+  </si>
+  <si>
+    <t>96_Cars_TC_08</t>
+  </si>
+  <si>
+    <t>Viewing and editing
+customer profile</t>
+  </si>
+  <si>
+    <t>1. The site is launched on a compatible browser</t>
+  </si>
+  <si>
+    <t>1. The site is launched on a compatible browser
+2. The user has created an account</t>
+  </si>
+  <si>
+    <t>3. Select chosen data based on 
+drop-down question prompts provided</t>
+  </si>
+  <si>
+    <t>Clicking “Edit Details” will open “Edit Account” page</t>
+  </si>
+  <si>
+    <t>A link “My profile” is displayed for registered 
+customers
+Clicking ”My profile” will direct the user to their 
+profile displaying all their details</t>
+  </si>
+  <si>
+    <t>The user can edit their personal information if they 
+need to via “Edit Details” button.</t>
+  </si>
+  <si>
+    <t>The user can set their profile to private for privacy
+purposes via “Private my Account”</t>
+  </si>
+  <si>
+    <t>User can edit and make changes to their profile details</t>
+  </si>
+  <si>
+    <t>96_Cars_TC_09</t>
+  </si>
+  <si>
+    <t>Store Interface</t>
+  </si>
+  <si>
+    <t>1. Click "Profile" on top 
+2. Click "Edit Profile?" 
+3. Enter Full name
+4. Enter Phone number
+5. Enter address
+6. Enter birthday</t>
+  </si>
+  <si>
+    <t>7. Enter occupation</t>
+  </si>
+  <si>
+    <t>8. Enter Gender</t>
+  </si>
+  <si>
+    <t>The link http://127.0.0.1:8000/userprofile/
+A valid account
+Valid input for profile details</t>
+  </si>
+  <si>
+    <t>1. The site is launched on a compatible browser
+2. The user has created an account
+3. The user is a valid staff member</t>
+  </si>
+  <si>
+    <t>1. Click "Management" on top
+2. Enter management login details
+3. Click "Store Interface"
+4. Select Store from drop-down box
+5. Select Car in Placed Orders section to pickup or in Active Orders section to return
+6. Click Submit Button</t>
+  </si>
+  <si>
+    <t>The link http://127.0.0.1:8000/management/
+A valid management account
+Car orderd</t>
+  </si>
+  <si>
+    <t>User can choose to pick up and return car orders</t>
+  </si>
+  <si>
+    <t>The user is able to select from a range of car orders and move orders from placed to active.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +515,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -704,7 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -716,47 +840,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -777,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -799,17 +890,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -841,11 +978,42 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{AE6FFACE-C494-4907-A0CE-E3EBAA37E083}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1113,115 +1281,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="32.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="26"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="26"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="28">
         <v>43392</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="26"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="28">
         <v>43399</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1246,824 +1414,940 @@
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="15" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="21" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="23" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="15" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="21" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="25" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="25" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="23" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="21" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="15" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="28" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="29" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="29" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="30" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="21" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="34" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="30" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="35" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="29" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="37" t="s">
+      <c r="F44" s="35"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="29" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C53" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+    </row>
+    <row r="54" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="D54" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="F61" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="D45:D47"/>
@@ -2071,6 +2355,9 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="A36:A38"/>
@@ -2078,8 +2365,6 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="G36:G38"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
@@ -2090,15 +2375,18 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Testing Log.xlsx
+++ b/Testing/Testing Log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zac Seeto\Djangodev\IFB299-Team96\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F02CD-365E-48DE-8D72-27B2ECA4F69D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>Project Name</t>
   </si>
@@ -349,129 +348,12 @@
 “Confirm” button will add the review; pop-up “Success” and return to “Main Page”
 </t>
   </si>
-  <si>
-    <t>96_Cars_TC_07</t>
-  </si>
-  <si>
-    <t>Car Recommendation</t>
-  </si>
-  <si>
-    <t>1. Click "Search Car" on top</t>
-  </si>
-  <si>
-    <t>2. Click "Recommend me a car"</t>
-  </si>
-  <si>
-    <t>2. User has access to the "Search Car" function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The link http://127.0.0.1:8000/
-searchpage/ </t>
-  </si>
-  <si>
-    <t>Selected options from the drop
-down boxes</t>
-  </si>
-  <si>
-    <t>The user should be able to select from a range of cars that have been recommended based on their chosen preferences</t>
-  </si>
-  <si>
-    <t>User can filter the cars to cater
-more to their desires</t>
-  </si>
-  <si>
-    <t>96_Cars_TC_08</t>
-  </si>
-  <si>
-    <t>Viewing and editing
-customer profile</t>
-  </si>
-  <si>
-    <t>1. The site is launched on a compatible browser</t>
-  </si>
-  <si>
-    <t>1. The site is launched on a compatible browser
-2. The user has created an account</t>
-  </si>
-  <si>
-    <t>3. Select chosen data based on 
-drop-down question prompts provided</t>
-  </si>
-  <si>
-    <t>Clicking “Edit Details” will open “Edit Account” page</t>
-  </si>
-  <si>
-    <t>A link “My profile” is displayed for registered 
-customers
-Clicking ”My profile” will direct the user to their 
-profile displaying all their details</t>
-  </si>
-  <si>
-    <t>The user can edit their personal information if they 
-need to via “Edit Details” button.</t>
-  </si>
-  <si>
-    <t>The user can set their profile to private for privacy
-purposes via “Private my Account”</t>
-  </si>
-  <si>
-    <t>User can edit and make changes to their profile details</t>
-  </si>
-  <si>
-    <t>96_Cars_TC_09</t>
-  </si>
-  <si>
-    <t>Store Interface</t>
-  </si>
-  <si>
-    <t>1. Click "Profile" on top 
-2. Click "Edit Profile?" 
-3. Enter Full name
-4. Enter Phone number
-5. Enter address
-6. Enter birthday</t>
-  </si>
-  <si>
-    <t>7. Enter occupation</t>
-  </si>
-  <si>
-    <t>8. Enter Gender</t>
-  </si>
-  <si>
-    <t>The link http://127.0.0.1:8000/userprofile/
-A valid account
-Valid input for profile details</t>
-  </si>
-  <si>
-    <t>1. The site is launched on a compatible browser
-2. The user has created an account
-3. The user is a valid staff member</t>
-  </si>
-  <si>
-    <t>1. Click "Management" on top
-2. Enter management login details
-3. Click "Store Interface"
-4. Select Store from drop-down box
-5. Select Car in Placed Orders section to pickup or in Active Orders section to return
-6. Click Submit Button</t>
-  </si>
-  <si>
-    <t>The link http://127.0.0.1:8000/management/
-A valid management account
-Car orderd</t>
-  </si>
-  <si>
-    <t>User can choose to pick up and return car orders</t>
-  </si>
-  <si>
-    <t>The user is able to select from a range of car orders and move orders from placed to active.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,12 +397,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -828,7 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -840,17 +716,47 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -871,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -890,37 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,22 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -978,42 +841,11 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{AE6FFACE-C494-4907-A0CE-E3EBAA37E083}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1281,115 +1113,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="32.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="8">
         <v>43392</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="8">
         <v>43399</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1414,940 +1246,824 @@
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="6" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="6" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="6" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="6" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="15" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="6" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="11" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="17" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="18" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="18" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="19" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="6" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="11" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="6" t="s">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="23" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="19" t="s">
+      <c r="F38" s="27"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="24" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="18" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="36" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="18" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C53" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-    </row>
-    <row r="54" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="D54" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="F61" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="124" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>70</v>
-      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="D45:D47"/>
@@ -2355,9 +2071,6 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="A36:A38"/>
@@ -2365,6 +2078,8 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
@@ -2375,18 +2090,15 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>